--- a/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="119">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
@@ -52,16 +55,19 @@
     <t>died</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>recession</t>
   </si>
   <si>
     <t>fear</t>
@@ -70,13 +76,7 @@
     <t>war</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>fuck</t>
   </si>
   <si>
     <t>shit</t>
@@ -85,39 +85,36 @@
     <t>shame</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
     <t>shortage</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>sc</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
@@ -127,12 +124,12 @@
     <t>empty</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -142,165 +139,159 @@
     <t>amazing</t>
   </si>
   <si>
-    <t>beauty</t>
+    <t>love</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>strong</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>friend</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>boost</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>wish</t>
+    <t>easy</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>dear</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
+    <t>super</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
@@ -313,67 +304,64 @@
     <t>helping</t>
   </si>
   <si>
-    <t>available</t>
-  </si>
-  <si>
     <t>increased</t>
   </si>
   <si>
     <t>essential</t>
   </si>
   <si>
-    <t>want</t>
+    <t>health</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>news</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>retail</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>make</t>
+    <t>social</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>stay</t>
-  </si>
-  <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>food</t>
@@ -740,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -748,10 +736,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -812,10 +800,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -830,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -859,13 +847,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -877,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L4">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -901,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -909,13 +897,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7777777777777778</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -927,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>0.9696969696969697</v>
@@ -959,13 +947,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -977,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>0.9615384615384616</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L6">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="M6">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1001,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1009,13 +997,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.72</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1030,16 +1018,16 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>0.9565217391304348</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1051,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1059,13 +1047,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.702054794520548</v>
+        <v>0.7054794520547946</v>
       </c>
       <c r="C8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1077,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>0.9545454545454546</v>
@@ -1109,13 +1097,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1127,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>0.9491525423728814</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1151,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1159,13 +1147,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6896551724137931</v>
+        <v>0.65</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1177,31 +1165,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>0.9473684210526315</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L10">
+        <v>94</v>
+      </c>
+      <c r="M10">
+        <v>94</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>18</v>
-      </c>
-      <c r="M10">
-        <v>18</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1209,13 +1197,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6538461538461539</v>
+        <v>0.64</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1230,16 +1218,16 @@
         <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>0.875</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1251,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1259,13 +1247,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.631578947368421</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1280,16 +1268,16 @@
         <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>0.8611111111111112</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1301,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1309,13 +1297,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1327,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K13">
-        <v>0.8482142857142857</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L13">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="M13">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1351,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1359,13 +1347,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5652173913043478</v>
+        <v>0.5</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1377,19 +1365,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K14">
-        <v>0.8292682926829268</v>
+        <v>0.8203125</v>
       </c>
       <c r="L14">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="M14">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1401,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1409,13 +1397,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5483870967741935</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1427,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>0.8148148148148148</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L15">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="M15">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1451,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1459,13 +1447,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5384615384615384</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1477,19 +1465,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>0.8125</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="L16">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M16">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1501,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1509,13 +1497,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4594594594594595</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1527,19 +1515,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K17">
-        <v>0.8125</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L17">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M17">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1551,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1559,13 +1547,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4102564102564102</v>
+        <v>0.3758389261744967</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1577,19 +1565,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K18">
-        <v>0.8103448275862069</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1601,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1609,13 +1597,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3959731543624161</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C19">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1627,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K19">
-        <v>0.8083333333333333</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L19">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="M19">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1651,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1659,13 +1647,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3728813559322034</v>
+        <v>0.3662790697674418</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1677,19 +1665,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>37</v>
+        <v>327</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K20">
-        <v>0.8055555555555556</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1709,13 +1697,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3725490196078431</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1727,19 +1715,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21">
-        <v>0.7872340425531915</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L21">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="M21">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1751,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1759,13 +1747,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3643410852713178</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C22">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1777,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>328</v>
+        <v>38</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K22">
-        <v>0.7816901408450704</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L22">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1801,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1830,16 +1818,16 @@
         <v>24</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K23">
-        <v>0.7777777777777778</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1851,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1859,13 +1847,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3466666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1877,19 +1865,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K24">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1909,13 +1897,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3376623376623377</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1927,19 +1915,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K25">
-        <v>0.7301587301587301</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L25">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="M25">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1951,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1959,13 +1947,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.325</v>
+        <v>0.3121693121693122</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1977,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K26">
-        <v>0.7254901960784313</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2001,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2009,38 +1997,38 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3137254901960784</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>54</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="L27">
         <v>16</v>
       </c>
-      <c r="D27">
+      <c r="M27">
         <v>16</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>35</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K27">
-        <v>0.7169811320754716</v>
-      </c>
-      <c r="L27">
-        <v>76</v>
-      </c>
-      <c r="M27">
-        <v>76</v>
-      </c>
       <c r="N27">
         <v>1</v>
       </c>
@@ -2051,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2059,13 +2047,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3068783068783069</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C28">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2077,19 +2065,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K28">
-        <v>0.7021276595744681</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L28">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2101,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2109,13 +2097,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2909090909090909</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2127,19 +2115,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K29">
-        <v>0.6956521739130435</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2151,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2159,13 +2147,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2711864406779661</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2177,19 +2165,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K30">
-        <v>0.6842105263157895</v>
+        <v>0.68125</v>
       </c>
       <c r="L30">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M30">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2201,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2209,13 +2197,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2333333333333333</v>
+        <v>0.225</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2227,19 +2215,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K31">
-        <v>0.675</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L31">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2251,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>52</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2280,16 +2268,16 @@
         <v>204</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K32">
-        <v>0.6744186046511628</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2301,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2309,13 +2297,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.175</v>
+        <v>0.1206434316353887</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2327,69 +2315,45 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>66</v>
+        <v>328</v>
       </c>
       <c r="J33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33">
+        <v>0.625</v>
+      </c>
+      <c r="L33">
+        <v>30</v>
+      </c>
+      <c r="M33">
+        <v>30</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="J34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K33">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L33">
-        <v>22</v>
-      </c>
-      <c r="M33">
-        <v>22</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.09919571045576407</v>
-      </c>
-      <c r="C34">
-        <v>37</v>
-      </c>
-      <c r="D34">
-        <v>37</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>336</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="K34">
-        <v>0.6318537859007833</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L34">
-        <v>242</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>242</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2401,21 +2365,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>141</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="J35" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K35">
-        <v>0.6222222222222222</v>
+        <v>0.6135770234986945</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2427,21 +2391,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="J36" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K36">
-        <v>0.62</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2453,21 +2417,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K37">
-        <v>0.6071428571428571</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2479,21 +2443,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K38">
-        <v>0.6041666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="L38">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2505,21 +2469,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K39">
-        <v>0.5823529411764706</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L39">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2531,21 +2495,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>142</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K40">
-        <v>0.5806451612903226</v>
+        <v>0.5852941176470589</v>
       </c>
       <c r="L40">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2557,21 +2521,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K41">
-        <v>0.5714285714285714</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2583,21 +2547,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K42">
-        <v>0.5617977528089888</v>
+        <v>0.58</v>
       </c>
       <c r="L42">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2609,21 +2573,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K43">
-        <v>0.5428571428571428</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2635,21 +2599,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K44">
-        <v>0.5416666666666666</v>
+        <v>0.5491525423728814</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2661,21 +2625,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>11</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K45">
-        <v>0.5389830508474577</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L45">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2687,21 +2651,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K46">
-        <v>0.525</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L46">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2713,21 +2677,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K47">
-        <v>0.4923076923076923</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L47">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2739,21 +2703,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K48">
-        <v>0.4895397489539749</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L48">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="M48">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2765,21 +2729,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>122</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K49">
-        <v>0.4848484848484849</v>
+        <v>0.4686192468619247</v>
       </c>
       <c r="L49">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="M49">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2791,21 +2755,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K50">
-        <v>0.4814814814814815</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2817,21 +2781,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K51">
-        <v>0.4615384615384616</v>
+        <v>0.45</v>
       </c>
       <c r="L51">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M51">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2843,21 +2807,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K52">
-        <v>0.4516129032258064</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L52">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M52">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2869,21 +2833,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K53">
-        <v>0.4383561643835616</v>
+        <v>0.4375</v>
       </c>
       <c r="L53">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M53">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2895,21 +2859,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K54">
-        <v>0.4285714285714285</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L54">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M54">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2921,21 +2885,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K55">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
       <c r="L55">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M55">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2947,21 +2911,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K56">
-        <v>0.421875</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="L56">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M56">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2973,21 +2937,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K57">
-        <v>0.4</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="L57">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M57">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2999,21 +2963,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K58">
-        <v>0.3617021276595745</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L58">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M58">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3025,47 +2989,47 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K59">
-        <v>0.2622950819672131</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="L59">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M59">
         <v>16</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K60">
-        <v>0.2542372881355932</v>
+        <v>0.1417322834645669</v>
       </c>
       <c r="L60">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M60">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3077,21 +3041,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>44</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K61">
-        <v>0.2542372881355932</v>
+        <v>0.1221374045801527</v>
       </c>
       <c r="L61">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M61">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3103,21 +3067,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>44</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K62">
-        <v>0.2222222222222222</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L62">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M62">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3129,21 +3093,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>56</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K63">
-        <v>0.1496062992125984</v>
+        <v>0.1081730769230769</v>
       </c>
       <c r="L63">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="M63">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3155,21 +3119,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>108</v>
+        <v>371</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K64">
-        <v>0.1473684210526316</v>
+        <v>0.1076555023923445</v>
       </c>
       <c r="L64">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="M64">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3181,47 +3145,47 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>81</v>
+        <v>373</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K65">
-        <v>0.1196172248803828</v>
+        <v>0.09848484848484848</v>
       </c>
       <c r="L65">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M65">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>368</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K66">
-        <v>0.1129807692307692</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="L66">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="M66">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3233,21 +3197,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>369</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K67">
-        <v>0.1069767441860465</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="L67">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M67">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3259,21 +3223,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K68">
-        <v>0.1069182389937107</v>
+        <v>0.08176100628930817</v>
       </c>
       <c r="L68">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M68">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3285,21 +3249,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K69">
-        <v>0.1023255813953488</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="L69">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M69">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3311,47 +3275,47 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>193</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K70">
-        <v>0.1</v>
+        <v>0.0782608695652174</v>
       </c>
       <c r="L70">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M70">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N70">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>117</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K71">
-        <v>0.09883720930232558</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="L71">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M71">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3363,21 +3327,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K72">
-        <v>0.08484848484848485</v>
+        <v>0.07494407158836688</v>
       </c>
       <c r="L72">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="M72">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3389,47 +3353,47 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>151</v>
+        <v>827</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K73">
-        <v>0.08256880733944955</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="L73">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M73">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K74">
-        <v>0.07975460122699386</v>
+        <v>0.04994450610432852</v>
       </c>
       <c r="L74">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M74">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3441,73 +3405,73 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>150</v>
+        <v>856</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K75">
-        <v>0.07046979865771812</v>
+        <v>0.04622496147919877</v>
       </c>
       <c r="L75">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="M75">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>831</v>
+        <v>619</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K76">
-        <v>0.06956521739130435</v>
+        <v>0.04536950420954163</v>
       </c>
       <c r="L76">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="M76">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>214</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K77">
-        <v>0.06326304106548279</v>
+        <v>0.0411522633744856</v>
       </c>
       <c r="L77">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="M77">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3519,21 +3483,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>844</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K78">
-        <v>0.05519480519480519</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="L78">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M78">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3545,163 +3509,85 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>291</v>
+        <v>833</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K79">
-        <v>0.04629629629629629</v>
+        <v>0.02685950413223141</v>
       </c>
       <c r="L79">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M79">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N79">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>618</v>
+        <v>942</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K80">
-        <v>0.04157043879907621</v>
+        <v>0.02032258064516129</v>
       </c>
       <c r="L80">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="M80">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="N80">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="O80">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>830</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K81">
-        <v>0.0364656381486676</v>
+        <v>0.0112781954887218</v>
       </c>
       <c r="L81">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="M81">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="N81">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="O81">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="82" spans="10:17">
-      <c r="J82" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K82">
-        <v>0.02590673575129534</v>
-      </c>
-      <c r="L82">
-        <v>25</v>
-      </c>
-      <c r="M82">
-        <v>28</v>
-      </c>
-      <c r="N82">
-        <v>0.89</v>
-      </c>
-      <c r="O82">
-        <v>0.11</v>
-      </c>
-      <c r="P82" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q82">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="83" spans="10:17">
-      <c r="J83" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K83">
-        <v>0.01903839948370442</v>
-      </c>
-      <c r="L83">
-        <v>59</v>
-      </c>
-      <c r="M83">
-        <v>67</v>
-      </c>
-      <c r="N83">
-        <v>0.88</v>
-      </c>
-      <c r="O83">
-        <v>0.12</v>
-      </c>
-      <c r="P83" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q83">
-        <v>3040</v>
-      </c>
-    </row>
-    <row r="84" spans="10:17">
-      <c r="J84" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K84">
-        <v>0.007518796992481203</v>
-      </c>
-      <c r="L84">
-        <v>24</v>
-      </c>
-      <c r="M84">
-        <v>33</v>
-      </c>
-      <c r="N84">
-        <v>0.73</v>
-      </c>
-      <c r="O84">
-        <v>0.27</v>
-      </c>
-      <c r="P84" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>3168</v>
+        <v>3156</v>
       </c>
     </row>
   </sheetData>
